--- a/output/ValueSet-EndpointUsecaseVS.xlsx
+++ b/output/ValueSet-EndpointUsecaseVS.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory-query/ValueSet/EndpointUsecaseVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/EndpointUsecaseVS</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T11:05:58-05:00</t>
+    <t>2021-12-17T13:53:37-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-EndpointUsecaseVS.xlsx
+++ b/output/ValueSet-EndpointUsecaseVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-17T13:53:37-05:00</t>
+    <t>2022-01-06T09:30:55-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-EndpointUsecaseVS.xlsx
+++ b/output/ValueSet-EndpointUsecaseVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-06T09:30:55-05:00</t>
+    <t>2022-01-07T08:48:00-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-EndpointUsecaseVS.xlsx
+++ b/output/ValueSet-EndpointUsecaseVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-07T08:48:00-05:00</t>
+    <t>2022-01-10T11:07:52-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-EndpointUsecaseVS.xlsx
+++ b/output/ValueSet-EndpointUsecaseVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T11:07:52-05:00</t>
+    <t>2022-01-10T14:04:03-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-EndpointUsecaseVS.xlsx
+++ b/output/ValueSet-EndpointUsecaseVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T14:04:03-05:00</t>
+    <t>2022-01-11T11:42:07-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-EndpointUsecaseVS.xlsx
+++ b/output/ValueSet-EndpointUsecaseVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-11T11:42:07-05:00</t>
+    <t>2022-01-11T11:53:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-EndpointUsecaseVS.xlsx
+++ b/output/ValueSet-EndpointUsecaseVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-11T11:53:21-05:00</t>
+    <t>2022-02-03T09:58:18-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-EndpointUsecaseVS.xlsx
+++ b/output/ValueSet-EndpointUsecaseVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-03T09:58:18-05:00</t>
+    <t>2022-02-03T10:48:00-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-EndpointUsecaseVS.xlsx
+++ b/output/ValueSet-EndpointUsecaseVS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-03T10:48:00-05:00</t>
+    <t>2022-03-09T14:32:46-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -424,7 +424,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -516,25 +516,17 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="B13" t="s" s="2">
         <v>48</v>
       </c>
     </row>

--- a/output/ValueSet-EndpointUsecaseVS.xlsx
+++ b/output/ValueSet-EndpointUsecaseVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-09T14:32:46-05:00</t>
+    <t>2022-03-16T09:57:32-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-EndpointUsecaseVS.xlsx
+++ b/output/ValueSet-EndpointUsecaseVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16T09:57:32-04:00</t>
+    <t>2022-03-25T16:16:05-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-EndpointUsecaseVS.xlsx
+++ b/output/ValueSet-EndpointUsecaseVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T16:16:05-04:00</t>
+    <t>2022-03-25T16:25:37-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-EndpointUsecaseVS.xlsx
+++ b/output/ValueSet-EndpointUsecaseVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T16:25:37-04:00</t>
+    <t>2022-04-01T12:43:46-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-EndpointUsecaseVS.xlsx
+++ b/output/ValueSet-EndpointUsecaseVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-01T12:43:46-04:00</t>
+    <t>2022-04-05T10:32:14-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-EndpointUsecaseVS.xlsx
+++ b/output/ValueSet-EndpointUsecaseVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T10:32:14-04:00</t>
+    <t>2022-04-05T18:50:47-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-EndpointUsecaseVS.xlsx
+++ b/output/ValueSet-EndpointUsecaseVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T18:50:47-04:00</t>
+    <t>2022-04-08T11:43:46-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-EndpointUsecaseVS.xlsx
+++ b/output/ValueSet-EndpointUsecaseVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-08T11:43:46-04:00</t>
+    <t>2022-04-20T16:26:55-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-EndpointUsecaseVS.xlsx
+++ b/output/ValueSet-EndpointUsecaseVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T16:26:55-04:00</t>
+    <t>2022-05-25T13:59:19-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-EndpointUsecaseVS.xlsx
+++ b/output/ValueSet-EndpointUsecaseVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-25T13:59:19-04:00</t>
+    <t>2022-06-03T15:19:55-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-EndpointUsecaseVS.xlsx
+++ b/output/ValueSet-EndpointUsecaseVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-03T15:19:55-04:00</t>
+    <t>2022-07-08T11:33:11-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-EndpointUsecaseVS.xlsx
+++ b/output/ValueSet-EndpointUsecaseVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T11:33:11-04:00</t>
+    <t>2022-07-12T12:55:11-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-EndpointUsecaseVS.xlsx
+++ b/output/ValueSet-EndpointUsecaseVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-12T12:55:11-04:00</t>
+    <t>2022-07-13T15:48:20-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-EndpointUsecaseVS.xlsx
+++ b/output/ValueSet-EndpointUsecaseVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-13T15:48:20-04:00</t>
+    <t>2022-07-14T18:44:03-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-EndpointUsecaseVS.xlsx
+++ b/output/ValueSet-EndpointUsecaseVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T18:44:03-04:00</t>
+    <t>2022-07-21T17:51:33-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-EndpointUsecaseVS.xlsx
+++ b/output/ValueSet-EndpointUsecaseVS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>1.0.0-ballot1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-21T17:51:33-04:00</t>
+    <t>2022-07-24T13:15:49-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-EndpointUsecaseVS.xlsx
+++ b/output/ValueSet-EndpointUsecaseVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-24T13:15:49-04:00</t>
+    <t>2022-07-25T09:59:20-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
